--- a/assignment5/result-multi.xlsx
+++ b/assignment5/result-multi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanlu\Desktop\NEU文件\INFO6205 算法\Assignment5 Parallel Sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipseWorkspace\INFO6205-Shibo-Lu\assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD4A03E-9718-4DFF-B956-6B607F285ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE016A5B-481B-4AB5-8628-A96C4EBB5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="4140" windowWidth="19200" windowHeight="11260"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result-multi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,10 +965,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
